--- a/data/long_dif/P24_4-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_4-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 14,09</t>
+          <t>1,78; 11,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,82</t>
+          <t>4,94; 16,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 16,55</t>
+          <t>7,98; 17,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 22,45</t>
+          <t>4,72; 14,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 18,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,79</t>
+          <t>6,43; 18,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 16,46</t>
+          <t>8,79; 20,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,68</t>
+          <t>9,02; 17,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,47</t>
+          <t>10,42; 22,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 12,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 16,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 15,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 17,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>67,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>56,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>70,13%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>62,37%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,64; 89,43</t>
+          <t>70,83; 88,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,45; 82,58</t>
+          <t>70,21; 86,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,81; 80,36</t>
+          <t>65,97; 79,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,99; 70,08</t>
+          <t>59,18; 81,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,75; 73,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,48; 75,29</t>
+          <t>60,17; 77,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,22; 77,82</t>
+          <t>56,46; 72,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,09; 75,92</t>
+          <t>61,59; 73,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,02; 76,33</t>
+          <t>47,56; 65,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>68,82; 80,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 77,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>65,54; 74,57</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>55,76; 69,72</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 16,43</t>
+          <t>7,94; 23,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 39,15</t>
+          <t>6,51; 18,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 22,21</t>
+          <t>10,06; 22,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,65; 25,9</t>
+          <t>12,6; 30,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 26,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 23,21</t>
+          <t>12,53; 28,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,96</t>
+          <t>14,99; 28,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,56</t>
+          <t>15,06; 24,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,34; 20,66</t>
+          <t>21,07; 35,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 22,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,52; 22,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 21,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 30,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 13,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,39%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,63; 89,62</t>
+          <t>2,27; 7,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,11; 85,48</t>
+          <t>5,88; 12,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,1; 84,23</t>
+          <t>6,58; 12,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,38; 80,11</t>
+          <t>7,66; 16,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,42; 76,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,97; 71,07</t>
+          <t>7,82; 15,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,73; 84,1</t>
+          <t>9,28; 18,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,56; 79,94</t>
+          <t>14,48; 21,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,82; 76,93</t>
+          <t>10,68; 17,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 10,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 14,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 15,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 15,54</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>66,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>62,84%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73,5%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>67,31%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,45</t>
+          <t>81,93; 90,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,92</t>
+          <t>75,17; 85,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 15,9</t>
+          <t>75,2; 83,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,79</t>
+          <t>64,52; 77,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,77</t>
+          <t>67,31; 79,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,07</t>
+          <t>66,7; 76,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,66</t>
+          <t>62,78; 71,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,05</t>
+          <t>57,11; 67,42</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>76,42; 83,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>72,24; 79,59</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>70,28; 76,42</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>63,11; 71,08</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,95</t>
+          <t>5,58; 13,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,83</t>
+          <t>6,73; 15,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,39</t>
+          <t>7,97; 15,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,01; 15,95</t>
+          <t>12,5; 22,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,42</t>
+          <t>10,44; 21,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,63</t>
+          <t>11,94; 19,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,63</t>
+          <t>12,61; 19,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,69</t>
+          <t>19,18; 28,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 15,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 15,91</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 16,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 24,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,49; 88,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>71,38; 84,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,81; 87,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>69,02; 78,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>68,11; 77,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,74; 75,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>75,3; 82,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,81; 79,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,65; 80,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 15,69</t>
+          <t>3,71; 11,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,01; 18,57</t>
+          <t>5,12; 16,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,17</t>
+          <t>7,38; 14,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,98</t>
+          <t>4,54; 12,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,15</t>
+          <t>7,82; 17,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,1</t>
+          <t>8,79; 16,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,3</t>
+          <t>9,55; 15,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,3</t>
+          <t>9,4; 16,49</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 12,49</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 14,61</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 13,81</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 13,24</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>74,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>72,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>80,07%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>75,33%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>77,53%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>71,6%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,11</t>
+          <t>80,54; 90,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,43</t>
+          <t>71,08; 83,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,84</t>
+          <t>79,78; 87,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,21</t>
+          <t>66,85; 82,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,61</t>
+          <t>68,51; 80,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,07</t>
+          <t>67,43; 77,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,61</t>
+          <t>66,44; 75,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,58</t>
+          <t>62,62; 72,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75,89; 83,64</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70,53; 78,92</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>74,29; 80,51</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>66,74; 75,48</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>69,17%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>82,56; 87,72</t>
+          <t>4,07; 12,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>74,92; 82,49</t>
+          <t>8,68; 19,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>77,29; 82,68</t>
+          <t>3,42; 8,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>69,86; 75,64</t>
+          <t>11,48; 25,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>68,07; 74,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>66,57; 71,75</t>
+          <t>9,4; 17,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>76,84; 81,03</t>
+          <t>11,43; 19,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>72,39; 77,29</t>
+          <t>13,44; 21,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>72,58; 76,45</t>
+          <t>15,44; 24,36</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 13,54</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 18,42</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 13,45</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 23,02</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,33; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11,88; 14,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 9,42</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 12,92</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 17,0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 22,45</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 12,01</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 15,47</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>83,41%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>77,62%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>70,34%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>71,12%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>77,08%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>74,54%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>78,04; 87,49</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>64,81; 84,77</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>65,4; 74,81</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>63,27; 77,72</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>73,25; 80,08</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>67,47; 79,54</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 15,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 29,75</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 20,86</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 19,88</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>11,01; 16,82</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 20,71</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 7,31</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 11,2</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 12,21</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 12,43</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 14,05</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 15,89</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 16,8</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 16,31</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 10,06</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 12,79</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 13,87</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 13,57</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>84,68%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>79,23%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>79,86%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>72,71%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>72,45%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>70,88%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>68,39%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>62,94%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>74,97%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>74,04%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>67,71%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>82,01; 87,23</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>75,41; 82,43</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>76,89; 82,59</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>68,24; 76,95</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>69,46; 75,35</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>67,82; 73,75</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>65,65; 70,85</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>59,32; 66,7</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>76,36; 80,4</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>72,4; 77,23</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>71,84; 75,84</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>64,97; 70,32</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 12,44</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 15,63</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 12,63</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 22,3</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 18,34</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 18,12</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 19,25</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 26,49</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 14,58</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 16,27</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 15,22</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 22,87</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_4-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_4-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
